--- a/table_for_grafics_new.xlsx
+++ b/table_for_grafics_new.xlsx
@@ -486,91 +486,91 @@
         <v>2</v>
       </c>
       <c r="B2">
+        <v>1.3</v>
+      </c>
+      <c r="C2">
+        <v>1.27</v>
+      </c>
+      <c r="D2">
+        <v>1.31</v>
+      </c>
+      <c r="E2">
         <v>1.29</v>
       </c>
-      <c r="C2">
+      <c r="F2">
+        <v>1.32</v>
+      </c>
+      <c r="G2">
         <v>1.28</v>
-      </c>
-      <c r="D2">
-        <v>1.28</v>
-      </c>
-      <c r="E2">
-        <v>1.28</v>
-      </c>
-      <c r="F2">
-        <v>1.33</v>
-      </c>
-      <c r="G2">
-        <v>1.27</v>
       </c>
       <c r="H2">
         <v>1.28</v>
       </c>
       <c r="I2">
+        <v>1.33</v>
+      </c>
+      <c r="J2">
+        <v>1.32</v>
+      </c>
+      <c r="K2">
+        <v>1.37</v>
+      </c>
+      <c r="L2">
+        <v>1.29</v>
+      </c>
+      <c r="M2">
+        <v>1.32</v>
+      </c>
+      <c r="N2">
+        <v>1.26</v>
+      </c>
+      <c r="O2">
+        <v>1.33</v>
+      </c>
+      <c r="P2">
+        <v>1.41</v>
+      </c>
+      <c r="Q2">
+        <v>1.33</v>
+      </c>
+      <c r="R2">
         <v>1.28</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1.34</v>
-      </c>
-      <c r="L2">
-        <v>1.28</v>
-      </c>
-      <c r="M2">
-        <v>1.33</v>
-      </c>
-      <c r="N2">
-        <v>1.27</v>
-      </c>
-      <c r="O2">
-        <v>1.34</v>
-      </c>
-      <c r="P2">
-        <v>1.39</v>
-      </c>
-      <c r="Q2">
-        <v>1.35</v>
-      </c>
-      <c r="R2">
-        <v>1.29</v>
       </c>
       <c r="S2">
         <v>1.34</v>
       </c>
       <c r="T2">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="U2">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="V2">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W2">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X2">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="Y2">
         <v>1.37</v>
       </c>
       <c r="Z2">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AA2">
         <v>1.26</v>
       </c>
       <c r="AB2">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AC2">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="AD2">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="AE2">
         <v>1.3</v>
@@ -579,7 +579,7 @@
         <v>1.29</v>
       </c>
       <c r="AG2">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -611,16 +611,16 @@
         <v>1.14</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="K3">
         <v>1.16</v>
       </c>
       <c r="L3">
+        <v>1.13</v>
+      </c>
+      <c r="M3">
         <v>1.14</v>
-      </c>
-      <c r="M3">
-        <v>1.15</v>
       </c>
       <c r="N3">
         <v>1.11</v>
@@ -638,22 +638,22 @@
         <v>1.13</v>
       </c>
       <c r="S3">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="T3">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="U3">
         <v>1.18</v>
       </c>
       <c r="V3">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W3">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X3">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="Y3">
         <v>1.17</v>
@@ -662,7 +662,7 @@
         <v>1.14</v>
       </c>
       <c r="AA3">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AB3">
         <v>1.14</v>
@@ -671,7 +671,7 @@
         <v>1.15</v>
       </c>
       <c r="AD3">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AE3">
         <v>1.13</v>
@@ -706,19 +706,19 @@
         <v>1.08</v>
       </c>
       <c r="H4">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="I4">
         <v>1.1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K4">
         <v>1.12</v>
       </c>
       <c r="L4">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="M4">
         <v>1.1</v>
@@ -736,7 +736,7 @@
         <v>1.11</v>
       </c>
       <c r="R4">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="S4">
         <v>1.11</v>
@@ -772,7 +772,7 @@
         <v>1.11</v>
       </c>
       <c r="AD4">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AE4">
         <v>1.1</v>
@@ -781,7 +781,7 @@
         <v>1.1</v>
       </c>
       <c r="AG4">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -813,10 +813,10 @@
         <v>1.08</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K5">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="L5">
         <v>1.08</v>
@@ -831,7 +831,7 @@
         <v>1.09</v>
       </c>
       <c r="P5">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="Q5">
         <v>1.09</v>
@@ -843,13 +843,13 @@
         <v>1.09</v>
       </c>
       <c r="T5">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="U5">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="V5">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W5">
         <v>1.08</v>
@@ -873,7 +873,7 @@
         <v>1.09</v>
       </c>
       <c r="AD5">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AE5">
         <v>1.08</v>
@@ -905,16 +905,16 @@
         <v>1.07</v>
       </c>
       <c r="G6">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="H6">
         <v>1.06</v>
       </c>
       <c r="I6">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K6">
         <v>1.08</v>
@@ -944,10 +944,10 @@
         <v>1.07</v>
       </c>
       <c r="T6">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="U6">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="V6">
         <v>1.06</v>
@@ -968,7 +968,7 @@
         <v>1.06</v>
       </c>
       <c r="AB6">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC6">
         <v>1.07</v>
@@ -1009,13 +1009,13 @@
         <v>1.04</v>
       </c>
       <c r="H7">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="I7">
         <v>1.06</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K7">
         <v>1.07</v>
@@ -1027,7 +1027,7 @@
         <v>1.06</v>
       </c>
       <c r="N7">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="O7">
         <v>1.06</v>
@@ -1042,7 +1042,7 @@
         <v>1.05</v>
       </c>
       <c r="S7">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="T7">
         <v>1.06</v>
@@ -1078,7 +1078,7 @@
         <v>1.06</v>
       </c>
       <c r="AE7">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AF7">
         <v>1.05</v>
@@ -1116,10 +1116,10 @@
         <v>1.05</v>
       </c>
       <c r="J8">
-        <v>51.22</v>
+        <v>1.05</v>
       </c>
       <c r="K8">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="L8">
         <v>1.05</v>
@@ -1158,7 +1158,7 @@
         <v>1.05</v>
       </c>
       <c r="X8">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Y8">
         <v>1.06</v>
@@ -1217,10 +1217,10 @@
         <v>1.05</v>
       </c>
       <c r="J9">
-        <v>14.58</v>
+        <v>1.05</v>
       </c>
       <c r="K9">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="L9">
         <v>1.05</v>
@@ -1238,7 +1238,7 @@
         <v>1.06</v>
       </c>
       <c r="Q9">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="R9">
         <v>1.05</v>

--- a/table_for_grafics_new.xlsx
+++ b/table_for_grafics_new.xlsx
@@ -486,16 +486,16 @@
         <v>2</v>
       </c>
       <c r="B2">
+        <v>1.31</v>
+      </c>
+      <c r="C2">
+        <v>1.28</v>
+      </c>
+      <c r="D2">
+        <v>1.29</v>
+      </c>
+      <c r="E2">
         <v>1.3</v>
-      </c>
-      <c r="C2">
-        <v>1.27</v>
-      </c>
-      <c r="D2">
-        <v>1.31</v>
-      </c>
-      <c r="E2">
-        <v>1.29</v>
       </c>
       <c r="F2">
         <v>1.32</v>
@@ -507,13 +507,13 @@
         <v>1.28</v>
       </c>
       <c r="I2">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="J2">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="K2">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="L2">
         <v>1.29</v>
@@ -522,37 +522,37 @@
         <v>1.32</v>
       </c>
       <c r="N2">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="O2">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P2">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="Q2">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="R2">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S2">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="T2">
         <v>1.4</v>
       </c>
       <c r="U2">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="V2">
         <v>1.28</v>
       </c>
       <c r="W2">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="X2">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="Y2">
         <v>1.37</v>
@@ -561,25 +561,25 @@
         <v>1.31</v>
       </c>
       <c r="AA2">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AB2">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AC2">
         <v>1.34</v>
       </c>
       <c r="AD2">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AE2">
+        <v>1.28</v>
+      </c>
+      <c r="AF2">
+        <v>1.31</v>
+      </c>
+      <c r="AG2">
         <v>1.3</v>
-      </c>
-      <c r="AF2">
-        <v>1.29</v>
-      </c>
-      <c r="AG2">
-        <v>1.28</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -599,19 +599,19 @@
         <v>1.13</v>
       </c>
       <c r="F3">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="G3">
+        <v>1.11</v>
+      </c>
+      <c r="H3">
         <v>1.12</v>
-      </c>
-      <c r="H3">
-        <v>1.13</v>
       </c>
       <c r="I3">
         <v>1.14</v>
       </c>
       <c r="J3">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K3">
         <v>1.16</v>
@@ -647,7 +647,7 @@
         <v>1.18</v>
       </c>
       <c r="V3">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W3">
         <v>1.14</v>
@@ -656,7 +656,7 @@
         <v>1.15</v>
       </c>
       <c r="Y3">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="Z3">
         <v>1.14</v>
@@ -671,7 +671,7 @@
         <v>1.15</v>
       </c>
       <c r="AD3">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AE3">
         <v>1.13</v>
@@ -697,7 +697,7 @@
         <v>1.09</v>
       </c>
       <c r="E4">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="F4">
         <v>1.1</v>
@@ -724,7 +724,7 @@
         <v>1.1</v>
       </c>
       <c r="N4">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="O4">
         <v>1.11</v>
@@ -751,10 +751,10 @@
         <v>1.09</v>
       </c>
       <c r="W4">
+        <v>1.09</v>
+      </c>
+      <c r="X4">
         <v>1.1</v>
-      </c>
-      <c r="X4">
-        <v>1.11</v>
       </c>
       <c r="Y4">
         <v>1.11</v>
@@ -772,13 +772,13 @@
         <v>1.11</v>
       </c>
       <c r="AD4">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AE4">
         <v>1.1</v>
       </c>
       <c r="AF4">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AG4">
         <v>1.09</v>
@@ -795,7 +795,7 @@
         <v>1.06</v>
       </c>
       <c r="D5">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="E5">
         <v>1.08</v>
@@ -846,16 +846,16 @@
         <v>1.09</v>
       </c>
       <c r="U5">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="V5">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W5">
         <v>1.08</v>
       </c>
       <c r="X5">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="Y5">
         <v>1.09</v>
@@ -864,7 +864,7 @@
         <v>1.08</v>
       </c>
       <c r="AA5">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AB5">
         <v>1.08</v>
@@ -873,7 +873,7 @@
         <v>1.09</v>
       </c>
       <c r="AD5">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AE5">
         <v>1.08</v>
@@ -882,7 +882,7 @@
         <v>1.08</v>
       </c>
       <c r="AG5">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -911,7 +911,7 @@
         <v>1.06</v>
       </c>
       <c r="I6">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="J6">
         <v>1.06</v>
@@ -923,7 +923,7 @@
         <v>1.06</v>
       </c>
       <c r="M6">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6">
         <v>1.04</v>
@@ -932,7 +932,7 @@
         <v>1.07</v>
       </c>
       <c r="P6">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Q6">
         <v>1.07</v>
@@ -944,10 +944,10 @@
         <v>1.07</v>
       </c>
       <c r="T6">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="U6">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="V6">
         <v>1.06</v>
@@ -962,13 +962,13 @@
         <v>1.07</v>
       </c>
       <c r="Z6">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AA6">
         <v>1.06</v>
       </c>
       <c r="AB6">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC6">
         <v>1.07</v>
@@ -991,7 +991,7 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
         <v>1.04</v>
@@ -1012,10 +1012,10 @@
         <v>1.05</v>
       </c>
       <c r="I7">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="J7">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K7">
         <v>1.07</v>
@@ -1027,7 +1027,7 @@
         <v>1.06</v>
       </c>
       <c r="N7">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="O7">
         <v>1.06</v>
@@ -1078,7 +1078,7 @@
         <v>1.06</v>
       </c>
       <c r="AE7">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AF7">
         <v>1.05</v>
@@ -1232,7 +1232,7 @@
         <v>1.03</v>
       </c>
       <c r="O9">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P9">
         <v>1.06</v>
@@ -1247,7 +1247,7 @@
         <v>1.06</v>
       </c>
       <c r="T9">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="U9">
         <v>1.06</v>

--- a/table_for_grafics_new.xlsx
+++ b/table_for_grafics_new.xlsx
@@ -486,100 +486,100 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="C2">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="D2">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="E2">
-        <v>1.3</v>
+        <v>1.51</v>
       </c>
       <c r="F2">
-        <v>1.32</v>
+        <v>1.63</v>
       </c>
       <c r="G2">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="H2">
-        <v>1.28</v>
+        <v>1.51</v>
       </c>
       <c r="I2">
-        <v>1.32</v>
+        <v>1.57</v>
       </c>
       <c r="J2">
-        <v>1.29</v>
+        <v>1.54</v>
       </c>
       <c r="K2">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="L2">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="M2">
-        <v>1.32</v>
+        <v>1.57</v>
       </c>
       <c r="N2">
-        <v>1.28</v>
+        <v>1.51</v>
       </c>
       <c r="O2">
-        <v>1.32</v>
+        <v>1.57</v>
       </c>
       <c r="P2">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="Q2">
-        <v>1.34</v>
+        <v>1.7</v>
       </c>
       <c r="R2">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="S2">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="T2">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="U2">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="V2">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="W2">
-        <v>1.26</v>
+        <v>1.7</v>
       </c>
       <c r="X2">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="Y2">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
       <c r="Z2">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AA2">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="AB2">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="AC2">
-        <v>1.34</v>
+        <v>1.7</v>
       </c>
       <c r="AD2">
-        <v>1.32</v>
+        <v>1.63</v>
       </c>
       <c r="AE2">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="AF2">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="AG2">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -587,100 +587,100 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="C3">
-        <v>1.12</v>
+        <v>1.4</v>
       </c>
       <c r="D3">
-        <v>1.13</v>
+        <v>1.39</v>
       </c>
       <c r="E3">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="F3">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="G3">
-        <v>1.11</v>
+        <v>1.4</v>
       </c>
       <c r="H3">
-        <v>1.12</v>
+        <v>1.36</v>
       </c>
       <c r="I3">
-        <v>1.14</v>
+        <v>1.41</v>
       </c>
       <c r="J3">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="K3">
-        <v>1.16</v>
+        <v>1.43</v>
       </c>
       <c r="L3">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
       <c r="M3">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="N3">
-        <v>1.11</v>
+        <v>1.34</v>
       </c>
       <c r="O3">
-        <v>1.15</v>
+        <v>1.41</v>
       </c>
       <c r="P3">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="Q3">
-        <v>1.15</v>
+        <v>1.46</v>
       </c>
       <c r="R3">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="S3">
-        <v>1.15</v>
+        <v>1.43</v>
       </c>
       <c r="T3">
-        <v>1.17</v>
+        <v>1.41</v>
       </c>
       <c r="U3">
-        <v>1.18</v>
+        <v>1.43</v>
       </c>
       <c r="V3">
-        <v>1.13</v>
+        <v>1.39</v>
       </c>
       <c r="W3">
-        <v>1.14</v>
+        <v>1.46</v>
       </c>
       <c r="X3">
-        <v>1.15</v>
+        <v>1.43</v>
       </c>
       <c r="Y3">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="Z3">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="AA3">
-        <v>1.13</v>
+        <v>1.39</v>
       </c>
       <c r="AB3">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="AC3">
-        <v>1.15</v>
+        <v>1.48</v>
       </c>
       <c r="AD3">
-        <v>1.14</v>
+        <v>1.44</v>
       </c>
       <c r="AE3">
-        <v>1.13</v>
+        <v>1.39</v>
       </c>
       <c r="AF3">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
       <c r="AG3">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -688,100 +688,100 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>1.1</v>
+        <v>1.36</v>
       </c>
       <c r="C4">
-        <v>1.08</v>
+        <v>1.35</v>
       </c>
       <c r="D4">
-        <v>1.09</v>
+        <v>1.35</v>
       </c>
       <c r="E4">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="F4">
-        <v>1.1</v>
+        <v>1.38</v>
       </c>
       <c r="G4">
-        <v>1.08</v>
+        <v>1.36</v>
       </c>
       <c r="H4">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="I4">
-        <v>1.1</v>
+        <v>1.37</v>
       </c>
       <c r="J4">
-        <v>1.1</v>
+        <v>1.34</v>
       </c>
       <c r="K4">
-        <v>1.12</v>
+        <v>1.38</v>
       </c>
       <c r="L4">
-        <v>1.09</v>
+        <v>1.35</v>
       </c>
       <c r="M4">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="N4">
-        <v>1.07</v>
+        <v>1.31</v>
       </c>
       <c r="O4">
-        <v>1.11</v>
+        <v>1.37</v>
       </c>
       <c r="P4">
-        <v>1.12</v>
+        <v>1.37</v>
       </c>
       <c r="Q4">
-        <v>1.11</v>
+        <v>1.41</v>
       </c>
       <c r="R4">
-        <v>1.1</v>
+        <v>1.34</v>
       </c>
       <c r="S4">
-        <v>1.11</v>
+        <v>1.39</v>
       </c>
       <c r="T4">
-        <v>1.12</v>
+        <v>1.38</v>
       </c>
       <c r="U4">
-        <v>1.12</v>
+        <v>1.39</v>
       </c>
       <c r="V4">
-        <v>1.09</v>
+        <v>1.35</v>
       </c>
       <c r="W4">
-        <v>1.09</v>
+        <v>1.42</v>
       </c>
       <c r="X4">
-        <v>1.1</v>
+        <v>1.39</v>
       </c>
       <c r="Y4">
-        <v>1.11</v>
+        <v>1.36</v>
       </c>
       <c r="Z4">
-        <v>1.1</v>
+        <v>1.38</v>
       </c>
       <c r="AA4">
-        <v>1.09</v>
+        <v>1.35</v>
       </c>
       <c r="AB4">
-        <v>1.1</v>
+        <v>1.36</v>
       </c>
       <c r="AC4">
-        <v>1.11</v>
+        <v>1.43</v>
       </c>
       <c r="AD4">
-        <v>1.1</v>
+        <v>1.39</v>
       </c>
       <c r="AE4">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="AF4">
-        <v>1.09</v>
+        <v>1.35</v>
       </c>
       <c r="AG4">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -789,100 +789,100 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>1.08</v>
+        <v>1.34</v>
       </c>
       <c r="C5">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="D5">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="E5">
-        <v>1.08</v>
+        <v>1.31</v>
       </c>
       <c r="F5">
-        <v>1.08</v>
+        <v>1.36</v>
       </c>
       <c r="G5">
-        <v>1.06</v>
+        <v>1.34</v>
       </c>
       <c r="H5">
-        <v>1.08</v>
+        <v>1.31</v>
       </c>
       <c r="I5">
-        <v>1.08</v>
+        <v>1.35</v>
       </c>
       <c r="J5">
-        <v>1.08</v>
+        <v>1.32</v>
       </c>
       <c r="K5">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="L5">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="M5">
-        <v>1.08</v>
+        <v>1.34</v>
       </c>
       <c r="N5">
-        <v>1.06</v>
+        <v>1.29</v>
       </c>
       <c r="O5">
-        <v>1.09</v>
+        <v>1.35</v>
       </c>
       <c r="P5">
-        <v>1.09</v>
+        <v>1.35</v>
       </c>
       <c r="Q5">
-        <v>1.09</v>
+        <v>1.39</v>
       </c>
       <c r="R5">
-        <v>1.08</v>
+        <v>1.32</v>
       </c>
       <c r="S5">
-        <v>1.09</v>
+        <v>1.37</v>
       </c>
       <c r="T5">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="U5">
-        <v>1.1</v>
+        <v>1.37</v>
       </c>
       <c r="V5">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="W5">
-        <v>1.08</v>
+        <v>1.4</v>
       </c>
       <c r="X5">
-        <v>1.08</v>
+        <v>1.37</v>
       </c>
       <c r="Y5">
-        <v>1.09</v>
+        <v>1.34</v>
       </c>
       <c r="Z5">
-        <v>1.08</v>
+        <v>1.36</v>
       </c>
       <c r="AA5">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="AB5">
-        <v>1.08</v>
+        <v>1.34</v>
       </c>
       <c r="AC5">
-        <v>1.09</v>
+        <v>1.41</v>
       </c>
       <c r="AD5">
-        <v>1.08</v>
+        <v>1.37</v>
       </c>
       <c r="AE5">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AF5">
-        <v>1.08</v>
+        <v>1.34</v>
       </c>
       <c r="AG5">
-        <v>1.07</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -890,100 +890,100 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="C6">
-        <v>1.04</v>
+        <v>1.32</v>
       </c>
       <c r="D6">
-        <v>1.06</v>
+        <v>1.32</v>
       </c>
       <c r="E6">
-        <v>1.06</v>
+        <v>1.3</v>
       </c>
       <c r="F6">
-        <v>1.07</v>
+        <v>1.35</v>
       </c>
       <c r="G6">
-        <v>1.04</v>
+        <v>1.32</v>
       </c>
       <c r="H6">
-        <v>1.06</v>
+        <v>1.3</v>
       </c>
       <c r="I6">
-        <v>1.06</v>
+        <v>1.34</v>
       </c>
       <c r="J6">
-        <v>1.06</v>
+        <v>1.32</v>
       </c>
       <c r="K6">
-        <v>1.08</v>
+        <v>1.35</v>
       </c>
       <c r="L6">
-        <v>1.06</v>
+        <v>1.32</v>
       </c>
       <c r="M6">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="N6">
-        <v>1.04</v>
+        <v>1.28</v>
       </c>
       <c r="O6">
-        <v>1.07</v>
+        <v>1.34</v>
       </c>
       <c r="P6">
-        <v>1.07</v>
+        <v>1.34</v>
       </c>
       <c r="Q6">
-        <v>1.07</v>
+        <v>1.38</v>
       </c>
       <c r="R6">
-        <v>1.06</v>
+        <v>1.31</v>
       </c>
       <c r="S6">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="T6">
-        <v>1.07</v>
+        <v>1.35</v>
       </c>
       <c r="U6">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="V6">
-        <v>1.06</v>
+        <v>1.32</v>
       </c>
       <c r="W6">
-        <v>1.06</v>
+        <v>1.39</v>
       </c>
       <c r="X6">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="Y6">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="Z6">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="AA6">
-        <v>1.06</v>
+        <v>1.32</v>
       </c>
       <c r="AB6">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="AC6">
-        <v>1.07</v>
+        <v>1.4</v>
       </c>
       <c r="AD6">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="AE6">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="AF6">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="AG6">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -991,100 +991,100 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="C7">
-        <v>1.04</v>
+        <v>1.32</v>
       </c>
       <c r="D7">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="E7">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="F7">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="G7">
-        <v>1.04</v>
+        <v>1.32</v>
       </c>
       <c r="H7">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="I7">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="J7">
-        <v>1.05</v>
+        <v>1.31</v>
       </c>
       <c r="K7">
-        <v>1.07</v>
+        <v>1.35</v>
       </c>
       <c r="L7">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="M7">
-        <v>1.06</v>
+        <v>1.32</v>
       </c>
       <c r="N7">
-        <v>1.03</v>
+        <v>1.28</v>
       </c>
       <c r="O7">
-        <v>1.06</v>
+        <v>1.34</v>
       </c>
       <c r="P7">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="Q7">
-        <v>1.06</v>
+        <v>1.37</v>
       </c>
       <c r="R7">
-        <v>1.05</v>
+        <v>1.31</v>
       </c>
       <c r="S7">
-        <v>1.06</v>
+        <v>1.36</v>
       </c>
       <c r="T7">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="U7">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="V7">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="W7">
-        <v>1.06</v>
+        <v>1.39</v>
       </c>
       <c r="X7">
-        <v>1.06</v>
+        <v>1.36</v>
       </c>
       <c r="Y7">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="Z7">
-        <v>1.06</v>
+        <v>1.34</v>
       </c>
       <c r="AA7">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="AB7">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="AC7">
-        <v>1.06</v>
+        <v>1.39</v>
       </c>
       <c r="AD7">
-        <v>1.06</v>
+        <v>1.36</v>
       </c>
       <c r="AE7">
-        <v>1.06</v>
+        <v>1.32</v>
       </c>
       <c r="AF7">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="AG7">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -1092,100 +1092,100 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="C8">
-        <v>1.03</v>
+        <v>1.32</v>
       </c>
       <c r="D8">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="E8">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="F8">
-        <v>1.05</v>
+        <v>1.35</v>
       </c>
       <c r="G8">
-        <v>1.03</v>
+        <v>1.32</v>
       </c>
       <c r="H8">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="I8">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="J8">
-        <v>1.05</v>
+        <v>1.31</v>
       </c>
       <c r="K8">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="L8">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="M8">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="N8">
-        <v>1.03</v>
+        <v>1.28</v>
       </c>
       <c r="O8">
-        <v>1.06</v>
+        <v>1.34</v>
       </c>
       <c r="P8">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="Q8">
-        <v>1.06</v>
+        <v>1.36</v>
       </c>
       <c r="R8">
-        <v>1.05</v>
+        <v>1.31</v>
       </c>
       <c r="S8">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="T8">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="U8">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="V8">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="W8">
-        <v>1.05</v>
+        <v>1.61</v>
       </c>
       <c r="X8">
-        <v>1.06</v>
+        <v>1.36</v>
       </c>
       <c r="Y8">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="Z8">
-        <v>1.05</v>
+        <v>1.34</v>
       </c>
       <c r="AA8">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="AB8">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AC8">
-        <v>1.06</v>
+        <v>1.39</v>
       </c>
       <c r="AD8">
-        <v>1.05</v>
+        <v>1.36</v>
       </c>
       <c r="AE8">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="AF8">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="AG8">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -1193,100 +1193,100 @@
         <v>30</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="C9">
-        <v>1.03</v>
+        <v>1.33</v>
       </c>
       <c r="D9">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="E9">
-        <v>1.05</v>
+        <v>1.31</v>
       </c>
       <c r="F9">
-        <v>1.05</v>
+        <v>1.35</v>
       </c>
       <c r="G9">
-        <v>1.03</v>
+        <v>1.33</v>
       </c>
       <c r="H9">
-        <v>1.05</v>
+        <v>1.31</v>
       </c>
       <c r="I9">
-        <v>1.05</v>
+        <v>1.34</v>
       </c>
       <c r="J9">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="K9">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="L9">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="M9">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="N9">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="O9">
-        <v>1.05</v>
+        <v>1.34</v>
       </c>
       <c r="P9">
-        <v>1.06</v>
+        <v>1.34</v>
       </c>
       <c r="Q9">
-        <v>1.06</v>
+        <v>1.37</v>
       </c>
       <c r="R9">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="S9">
-        <v>1.06</v>
+        <v>1.36</v>
       </c>
       <c r="T9">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="U9">
-        <v>1.06</v>
+        <v>1.36</v>
       </c>
       <c r="V9">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="W9">
-        <v>1.06</v>
+        <v>2</v>
       </c>
       <c r="X9">
-        <v>1.05</v>
+        <v>1.37</v>
       </c>
       <c r="Y9">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="Z9">
-        <v>1.05</v>
+        <v>1.35</v>
       </c>
       <c r="AA9">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="AB9">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AC9">
-        <v>1.06</v>
+        <v>1.4</v>
       </c>
       <c r="AD9">
-        <v>1.05</v>
+        <v>1.38</v>
       </c>
       <c r="AE9">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AF9">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AG9">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/table_for_grafics_new.xlsx
+++ b/table_for_grafics_new.xlsx
@@ -486,100 +486,100 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="C2">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="D2">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="E2">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="F2">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="G2">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="H2">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="I2">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="J2">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="K2">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="L2">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="M2">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="N2">
-        <v>1.51</v>
+        <v>1.33</v>
       </c>
       <c r="O2">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="P2">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="Q2">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="R2">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="S2">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="T2">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="U2">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="V2">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="W2">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="X2">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="Y2">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="Z2">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AA2">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="AB2">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="AC2">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="AD2">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AE2">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="AF2">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="AG2">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -587,100 +587,100 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="C3">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="D3">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="E3">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="F3">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="G3">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="H3">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="I3">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="J3">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="K3">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="L3">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="M3">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="N3">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="O3">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="P3">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="Q3">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="R3">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="S3">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="T3">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="U3">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="V3">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
       <c r="W3">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="X3">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="Y3">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="Z3">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AA3">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="AB3">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="AC3">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="AD3">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AE3">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="AF3">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="AG3">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -688,100 +688,100 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="C4">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="D4">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="E4">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="F4">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="G4">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="H4">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="I4">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="J4">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="K4">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="L4">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="M4">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="N4">
-        <v>1.31</v>
+        <v>1.15</v>
       </c>
       <c r="O4">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="P4">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="Q4">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="R4">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="S4">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
       <c r="T4">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="U4">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="V4">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="W4">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="X4">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
       <c r="Y4">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="Z4">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AA4">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AB4">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="AC4">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="AD4">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
       <c r="AE4">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AF4">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AG4">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -789,100 +789,100 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="C5">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="D5">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="E5">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="F5">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="G5">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="H5">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="I5">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="J5">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="K5">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="L5">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="M5">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="N5">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="O5">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="P5">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="Q5">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
       <c r="R5">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="S5">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="T5">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="U5">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="V5">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="W5">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="X5">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="Y5">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="Z5">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="AA5">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="AB5">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="AC5">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="AD5">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="AE5">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="AF5">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="AG5">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -890,100 +890,100 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="C6">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="D6">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="E6">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="F6">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="G6">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="H6">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="I6">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="J6">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="K6">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="L6">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="M6">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="N6">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="O6">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="P6">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="Q6">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="R6">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="S6">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="T6">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="U6">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="V6">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="W6">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="X6">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="Y6">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="Z6">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AA6">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="AB6">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AC6">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="AD6">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="AE6">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AF6">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AG6">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -991,100 +991,100 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="C7">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="D7">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="E7">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="F7">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="G7">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="H7">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="I7">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="J7">
-        <v>1.31</v>
+        <v>1.15</v>
       </c>
       <c r="K7">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="L7">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="M7">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="N7">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="O7">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="P7">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="Q7">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="R7">
-        <v>1.31</v>
+        <v>1.15</v>
       </c>
       <c r="S7">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="T7">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="U7">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="V7">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="W7">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="X7">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="Y7">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="Z7">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="AA7">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="AB7">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AC7">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="AD7">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="AE7">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="AF7">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="AG7">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -1092,100 +1092,100 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="C8">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="D8">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="E8">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="F8">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="G8">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="H8">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="I8">
+        <v>1.16</v>
+      </c>
+      <c r="J8">
+        <v>1.15</v>
+      </c>
+      <c r="K8">
+        <v>1.18</v>
+      </c>
+      <c r="L8">
+        <v>1.15</v>
+      </c>
+      <c r="M8">
+        <v>1.16</v>
+      </c>
+      <c r="N8">
+        <v>1.12</v>
+      </c>
+      <c r="O8">
+        <v>1.17</v>
+      </c>
+      <c r="P8">
+        <v>1.17</v>
+      </c>
+      <c r="Q8">
+        <v>1.19</v>
+      </c>
+      <c r="R8">
+        <v>1.15</v>
+      </c>
+      <c r="S8">
+        <v>1.18</v>
+      </c>
+      <c r="T8">
+        <v>1.18</v>
+      </c>
+      <c r="U8">
+        <v>1.18</v>
+      </c>
+      <c r="V8">
+        <v>1.15</v>
+      </c>
+      <c r="W8">
         <v>1.33</v>
       </c>
-      <c r="J8">
-        <v>1.31</v>
-      </c>
-      <c r="K8">
-        <v>1.35</v>
-      </c>
-      <c r="L8">
-        <v>1.32</v>
-      </c>
-      <c r="M8">
-        <v>1.32</v>
-      </c>
-      <c r="N8">
-        <v>1.28</v>
-      </c>
-      <c r="O8">
-        <v>1.34</v>
-      </c>
-      <c r="P8">
-        <v>1.33</v>
-      </c>
-      <c r="Q8">
-        <v>1.36</v>
-      </c>
-      <c r="R8">
-        <v>1.31</v>
-      </c>
-      <c r="S8">
-        <v>1.35</v>
-      </c>
-      <c r="T8">
-        <v>1.35</v>
-      </c>
-      <c r="U8">
-        <v>1.35</v>
-      </c>
-      <c r="V8">
-        <v>1.32</v>
-      </c>
-      <c r="W8">
-        <v>1.61</v>
-      </c>
       <c r="X8">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="Y8">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="Z8">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="AA8">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="AB8">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="AC8">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
       <c r="AD8">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="AE8">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="AF8">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="AG8">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -1193,100 +1193,100 @@
         <v>30</v>
       </c>
       <c r="B9">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="C9">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="D9">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="E9">
-        <v>1.31</v>
+        <v>1.14</v>
       </c>
       <c r="F9">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="G9">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="H9">
-        <v>1.31</v>
+        <v>1.14</v>
       </c>
       <c r="I9">
-        <v>1.34</v>
+        <v>1.16</v>
       </c>
       <c r="J9">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="K9">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="L9">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="M9">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="N9">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="O9">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="P9">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="Q9">
-        <v>1.37</v>
+        <v>1.19</v>
       </c>
       <c r="R9">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="S9">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="T9">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="U9">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="V9">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="X9">
-        <v>1.37</v>
+        <v>1.19</v>
       </c>
       <c r="Y9">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="Z9">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="AA9">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="AB9">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="AC9">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AD9">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="AE9">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="AF9">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="AG9">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>
